--- a/Code/Results/Cases/Case_1_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9979398952330596</v>
+        <v>1.027102853657206</v>
       </c>
       <c r="D2">
-        <v>1.026736050204718</v>
+        <v>1.030826718843157</v>
       </c>
       <c r="E2">
-        <v>1.010898458678855</v>
+        <v>1.035877072077094</v>
       </c>
       <c r="F2">
-        <v>1.013177882616407</v>
+        <v>1.043634919974799</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043175672537587</v>
+        <v>1.032995426893294</v>
       </c>
       <c r="J2">
-        <v>1.020182398760298</v>
+        <v>1.032262592691959</v>
       </c>
       <c r="K2">
-        <v>1.03783506341982</v>
+        <v>1.033636605255288</v>
       </c>
       <c r="L2">
-        <v>1.022208020331882</v>
+        <v>1.038672419361101</v>
       </c>
       <c r="M2">
-        <v>1.024456631353451</v>
+        <v>1.046408231202599</v>
       </c>
       <c r="N2">
-        <v>1.010637829298755</v>
+        <v>1.014769821801377</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001824900005109</v>
+        <v>1.027933215800363</v>
       </c>
       <c r="D3">
-        <v>1.028718559492292</v>
+        <v>1.031254391436562</v>
       </c>
       <c r="E3">
-        <v>1.014242588045719</v>
+        <v>1.036649267784965</v>
       </c>
       <c r="F3">
-        <v>1.017160602516252</v>
+        <v>1.044568126639018</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043923019497758</v>
+        <v>1.033106422492641</v>
       </c>
       <c r="J3">
-        <v>1.022265939730944</v>
+        <v>1.032733609880367</v>
       </c>
       <c r="K3">
-        <v>1.038996708407628</v>
+        <v>1.033873736513128</v>
       </c>
       <c r="L3">
-        <v>1.024696418813603</v>
+        <v>1.039254199749573</v>
       </c>
       <c r="M3">
-        <v>1.02757851953419</v>
+        <v>1.047152193618798</v>
       </c>
       <c r="N3">
-        <v>1.011340983073069</v>
+        <v>1.014927455671785</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004292818910879</v>
+        <v>1.02847115043483</v>
       </c>
       <c r="D4">
-        <v>1.029981514521837</v>
+        <v>1.031531439199948</v>
       </c>
       <c r="E4">
-        <v>1.016372852014727</v>
+        <v>1.03714994214315</v>
       </c>
       <c r="F4">
-        <v>1.019697952818234</v>
+        <v>1.045173344094577</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044389338385257</v>
+        <v>1.033177245261059</v>
       </c>
       <c r="J4">
-        <v>1.023587347762225</v>
+        <v>1.033038371902111</v>
       </c>
       <c r="K4">
-        <v>1.039731069579299</v>
+        <v>1.034026757204192</v>
       </c>
       <c r="L4">
-        <v>1.026277607006359</v>
+        <v>1.03963100222943</v>
       </c>
       <c r="M4">
-        <v>1.029564314547431</v>
+        <v>1.04763432957096</v>
       </c>
       <c r="N4">
-        <v>1.011786754025896</v>
+        <v>1.015029404641446</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005319675469485</v>
+        <v>1.028697448542754</v>
       </c>
       <c r="D5">
-        <v>1.030507793436124</v>
+        <v>1.031647983615646</v>
       </c>
       <c r="E5">
-        <v>1.017260610860264</v>
+        <v>1.037360666174523</v>
       </c>
       <c r="F5">
-        <v>1.020755448838623</v>
+        <v>1.045428103748726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044581304369893</v>
+        <v>1.033206779346</v>
       </c>
       <c r="J5">
-        <v>1.024136620711587</v>
+        <v>1.033166488432122</v>
       </c>
       <c r="K5">
-        <v>1.040035717816976</v>
+        <v>1.034090985593166</v>
       </c>
       <c r="L5">
-        <v>1.026935592977658</v>
+        <v>1.039789492790809</v>
       </c>
       <c r="M5">
-        <v>1.030391178347905</v>
+        <v>1.047837195689898</v>
       </c>
       <c r="N5">
-        <v>1.01197200341001</v>
+        <v>1.015072251400398</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005491473950913</v>
+        <v>1.028735453763617</v>
       </c>
       <c r="D6">
-        <v>1.030595886763458</v>
+        <v>1.03166755619338</v>
       </c>
       <c r="E6">
-        <v>1.017409218707123</v>
+        <v>1.037396061720103</v>
       </c>
       <c r="F6">
-        <v>1.020932475913455</v>
+        <v>1.045470898093225</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044613299031328</v>
+        <v>1.033211724166361</v>
       </c>
       <c r="J6">
-        <v>1.024228484390186</v>
+        <v>1.03318799940798</v>
       </c>
       <c r="K6">
-        <v>1.040086632336781</v>
+        <v>1.034101763835393</v>
       </c>
       <c r="L6">
-        <v>1.027045681544472</v>
+        <v>1.039816108868408</v>
       </c>
       <c r="M6">
-        <v>1.03052955220797</v>
+        <v>1.047871268087929</v>
       </c>
       <c r="N6">
-        <v>1.012002982879313</v>
+        <v>1.015079444808406</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004306581249334</v>
+        <v>1.028474173652283</v>
       </c>
       <c r="D7">
-        <v>1.029988564911768</v>
+        <v>1.031532996185561</v>
       </c>
       <c r="E7">
-        <v>1.016384744641968</v>
+        <v>1.037152756905065</v>
       </c>
       <c r="F7">
-        <v>1.019712118907364</v>
+        <v>1.045176746925949</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044391919377642</v>
+        <v>1.033177640840087</v>
       </c>
       <c r="J7">
-        <v>1.023594711506915</v>
+        <v>1.033040083824287</v>
       </c>
       <c r="K7">
-        <v>1.039735156240209</v>
+        <v>1.034027615827418</v>
       </c>
       <c r="L7">
-        <v>1.026286425305403</v>
+        <v>1.039633119664468</v>
       </c>
       <c r="M7">
-        <v>1.029575394123847</v>
+        <v>1.047637039587763</v>
       </c>
       <c r="N7">
-        <v>1.011789237726242</v>
+        <v>1.015029977211968</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9992625730160172</v>
+        <v>1.027383346036489</v>
       </c>
       <c r="D8">
-        <v>1.027410214565081</v>
+        <v>1.030971186450627</v>
       </c>
       <c r="E8">
-        <v>1.012035731503726</v>
+        <v>1.03613782860686</v>
       </c>
       <c r="F8">
-        <v>1.014532277793564</v>
+        <v>1.043950016698229</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043431852890621</v>
+        <v>1.033033144769739</v>
       </c>
       <c r="J8">
-        <v>1.020892188108412</v>
+        <v>1.032421778070389</v>
       </c>
       <c r="K8">
-        <v>1.038231268842131</v>
+        <v>1.033716830941399</v>
       </c>
       <c r="L8">
-        <v>1.023055102319894</v>
+        <v>1.038868961115796</v>
       </c>
       <c r="M8">
-        <v>1.025518933470591</v>
+        <v>1.046659502079425</v>
       </c>
       <c r="N8">
-        <v>1.010877404865446</v>
+        <v>1.014823105127783</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9900064499352639</v>
+        <v>1.025466100460213</v>
       </c>
       <c r="D9">
-        <v>1.022710623557565</v>
+        <v>1.029983701147956</v>
       </c>
       <c r="E9">
-        <v>1.00410338968597</v>
+        <v>1.03435722493918</v>
       </c>
       <c r="F9">
-        <v>1.005085975520859</v>
+        <v>1.041798937367609</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04160509054671</v>
+        <v>1.032770905137321</v>
       </c>
       <c r="J9">
-        <v>1.015917109831842</v>
+        <v>1.031332163175015</v>
       </c>
       <c r="K9">
-        <v>1.035445677553368</v>
+        <v>1.033166030584522</v>
       </c>
       <c r="L9">
-        <v>1.017130241232653</v>
+        <v>1.037525170989457</v>
       </c>
       <c r="M9">
-        <v>1.018097071764302</v>
+        <v>1.044942713587322</v>
       </c>
       <c r="N9">
-        <v>1.009197516030217</v>
+        <v>1.014458201953948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9835645953196895</v>
+        <v>1.024191347268759</v>
       </c>
       <c r="D10">
-        <v>1.019466543601839</v>
+        <v>1.029327167238278</v>
       </c>
       <c r="E10">
-        <v>0.998617671823577</v>
+        <v>1.033175525578265</v>
       </c>
       <c r="F10">
-        <v>0.9985529147047429</v>
+        <v>1.040372104281958</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04029237799091</v>
+        <v>1.032590997386193</v>
       </c>
       <c r="J10">
-        <v>1.012445819959172</v>
+        <v>1.030605770949654</v>
       </c>
       <c r="K10">
-        <v>1.033492999155884</v>
+        <v>1.032796777706697</v>
       </c>
       <c r="L10">
-        <v>1.013011929566663</v>
+        <v>1.03663124611321</v>
       </c>
       <c r="M10">
-        <v>1.012948345970378</v>
+        <v>1.043802154229004</v>
       </c>
       <c r="N10">
-        <v>1.008024690286786</v>
+        <v>1.014214712711912</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9807052294354832</v>
+        <v>1.023640193858967</v>
       </c>
       <c r="D11">
-        <v>1.018034072062002</v>
+        <v>1.02904332905881</v>
       </c>
       <c r="E11">
-        <v>0.9961914706104886</v>
+        <v>1.032665132638156</v>
       </c>
       <c r="F11">
-        <v>0.9956631149376439</v>
+        <v>1.039756005248364</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039700474493096</v>
+        <v>1.032511898853277</v>
       </c>
       <c r="J11">
-        <v>1.010903321536443</v>
+        <v>1.030291254535071</v>
       </c>
       <c r="K11">
-        <v>1.032623721634807</v>
+        <v>1.032636415201276</v>
       </c>
       <c r="L11">
-        <v>1.011185569401987</v>
+        <v>1.036244643289697</v>
       </c>
       <c r="M11">
-        <v>1.010667284637935</v>
+        <v>1.043309240289196</v>
       </c>
       <c r="N11">
-        <v>1.00750340435292</v>
+        <v>1.014109232598262</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9796321008605635</v>
+        <v>1.023435596200956</v>
       </c>
       <c r="D12">
-        <v>1.017497689294638</v>
+        <v>1.028937967770634</v>
       </c>
       <c r="E12">
-        <v>0.9952822707620269</v>
+        <v>1.032475745693264</v>
       </c>
       <c r="F12">
-        <v>0.9945801007186544</v>
+        <v>1.039527420276158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03947699642528</v>
+        <v>1.032482338950316</v>
       </c>
       <c r="J12">
-        <v>1.010324200293656</v>
+        <v>1.030174432794509</v>
       </c>
       <c r="K12">
-        <v>1.03229716746841</v>
+        <v>1.032576779486308</v>
       </c>
       <c r="L12">
-        <v>1.01050041661643</v>
+        <v>1.036101114194213</v>
       </c>
       <c r="M12">
-        <v>1.009811879340567</v>
+        <v>1.043126295323619</v>
       </c>
       <c r="N12">
-        <v>1.007307674446909</v>
+        <v>1.014070045885065</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9798627984703203</v>
+        <v>1.023479477399314</v>
       </c>
       <c r="D13">
-        <v>1.017612941887111</v>
+        <v>1.028960564977908</v>
       </c>
       <c r="E13">
-        <v>0.9954776652927327</v>
+        <v>1.032516360950138</v>
       </c>
       <c r="F13">
-        <v>0.994812853646923</v>
+        <v>1.039576440658937</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039525098483096</v>
+        <v>1.032488687747252</v>
       </c>
       <c r="J13">
-        <v>1.010448707058115</v>
+        <v>1.030199491269155</v>
       </c>
       <c r="K13">
-        <v>1.032367381945806</v>
+        <v>1.032589574695185</v>
       </c>
       <c r="L13">
-        <v>1.010647694944962</v>
+        <v>1.036131898373186</v>
       </c>
       <c r="M13">
-        <v>1.009995740044119</v>
+        <v>1.043165531042243</v>
       </c>
       <c r="N13">
-        <v>1.007349755612507</v>
+        <v>1.014078451864009</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9806167524520294</v>
+        <v>1.023623279188276</v>
       </c>
       <c r="D14">
-        <v>1.017989822957164</v>
+        <v>1.029034618446145</v>
       </c>
       <c r="E14">
-        <v>0.9961164812404714</v>
+        <v>1.032649473851161</v>
       </c>
       <c r="F14">
-        <v>0.9955737915087203</v>
+        <v>1.039737104995087</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039682076084533</v>
+        <v>1.032509459073805</v>
       </c>
       <c r="J14">
-        <v>1.010855578519292</v>
+        <v>1.030281597931816</v>
       </c>
       <c r="K14">
-        <v>1.032596803925705</v>
+        <v>1.032631487114257</v>
       </c>
       <c r="L14">
-        <v>1.011129074096499</v>
+        <v>1.036232777644648</v>
       </c>
       <c r="M14">
-        <v>1.010596744325592</v>
+        <v>1.043294115029467</v>
       </c>
       <c r="N14">
-        <v>1.007487268606134</v>
+        <v>1.014105993546402</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9810798104725257</v>
+        <v>1.023711896862164</v>
       </c>
       <c r="D15">
-        <v>1.018221458220421</v>
+        <v>1.029080254413204</v>
       </c>
       <c r="E15">
-        <v>0.996509005508173</v>
+        <v>1.032731515091418</v>
       </c>
       <c r="F15">
-        <v>0.9960413423485509</v>
+        <v>1.039836130320841</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039778312876364</v>
+        <v>1.0325222332505</v>
       </c>
       <c r="J15">
-        <v>1.011105440378084</v>
+        <v>1.030332187078106</v>
       </c>
       <c r="K15">
-        <v>1.032737669638049</v>
+        <v>1.032657301507251</v>
       </c>
       <c r="L15">
-        <v>1.011424762923813</v>
+        <v>1.036294942330061</v>
       </c>
       <c r="M15">
-        <v>1.010965956096244</v>
+        <v>1.04337335915924</v>
       </c>
       <c r="N15">
-        <v>1.007571713973946</v>
+        <v>1.014122962011486</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.983752843849752</v>
+        <v>1.024227942983669</v>
       </c>
       <c r="D16">
-        <v>1.019561016305793</v>
+        <v>1.029346014192201</v>
       </c>
       <c r="E16">
-        <v>0.9987775891120906</v>
+        <v>1.033209426024266</v>
       </c>
       <c r="F16">
-        <v>0.998743378727455</v>
+        <v>1.040413029334923</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040331158234499</v>
+        <v>1.032596221728965</v>
       </c>
       <c r="J16">
-        <v>1.012547339385404</v>
+        <v>1.030626644814289</v>
       </c>
       <c r="K16">
-        <v>1.033550181605498</v>
+        <v>1.032807410563658</v>
       </c>
       <c r="L16">
-        <v>1.013132206937451</v>
+        <v>1.036656913745875</v>
       </c>
       <c r="M16">
-        <v>1.013098614404625</v>
+        <v>1.043834887579614</v>
       </c>
       <c r="N16">
-        <v>1.008058996232616</v>
+        <v>1.014221712114572</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9854104713605176</v>
+        <v>1.024551866580868</v>
       </c>
       <c r="D17">
-        <v>1.020393764359144</v>
+        <v>1.029512838883501</v>
       </c>
       <c r="E17">
-        <v>1.000186749323741</v>
+        <v>1.033509553754586</v>
       </c>
       <c r="F17">
-        <v>1.000421663819966</v>
+        <v>1.040775367089815</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040671592884596</v>
+        <v>1.032642312687555</v>
       </c>
       <c r="J17">
-        <v>1.01344108348593</v>
+        <v>1.030811355577047</v>
       </c>
       <c r="K17">
-        <v>1.03405342230616</v>
+        <v>1.032901444074389</v>
       </c>
       <c r="L17">
-        <v>1.014191504940088</v>
+        <v>1.036884096362499</v>
       </c>
       <c r="M17">
-        <v>1.014422303779336</v>
+        <v>1.044124649200691</v>
       </c>
       <c r="N17">
-        <v>1.008361000177808</v>
+        <v>1.014283643007852</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9863706198798935</v>
+        <v>1.024740885048307</v>
       </c>
       <c r="D18">
-        <v>1.020876822409882</v>
+        <v>1.029610187742089</v>
       </c>
       <c r="E18">
-        <v>1.00100380787934</v>
+        <v>1.033684737592688</v>
       </c>
       <c r="F18">
-        <v>1.001394731474489</v>
+        <v>1.040986879280845</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040867902509452</v>
+        <v>1.032669081196308</v>
       </c>
       <c r="J18">
-        <v>1.013958604611026</v>
+        <v>1.030919095722051</v>
       </c>
       <c r="K18">
-        <v>1.03434466891265</v>
+        <v>1.032956246456522</v>
       </c>
       <c r="L18">
-        <v>1.014805236758554</v>
+        <v>1.037016653638348</v>
       </c>
       <c r="M18">
-        <v>1.015189433387614</v>
+        <v>1.04429375436276</v>
       </c>
       <c r="N18">
-        <v>1.008535862487943</v>
+        <v>1.01431976162038</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9866968814602244</v>
+        <v>1.02480534886561</v>
       </c>
       <c r="D19">
-        <v>1.02104108365387</v>
+        <v>1.029643388394089</v>
       </c>
       <c r="E19">
-        <v>1.001281586502883</v>
+        <v>1.033744491801543</v>
       </c>
       <c r="F19">
-        <v>1.001725544016923</v>
+        <v>1.041059027692137</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040934458292795</v>
+        <v>1.032678188942682</v>
       </c>
       <c r="J19">
-        <v>1.014134431290449</v>
+        <v>1.030955832541416</v>
       </c>
       <c r="K19">
-        <v>1.034443591726844</v>
+        <v>1.032974924851764</v>
       </c>
       <c r="L19">
-        <v>1.015013809835237</v>
+        <v>1.037061859918339</v>
       </c>
       <c r="M19">
-        <v>1.015450174751706</v>
+        <v>1.044351430427236</v>
       </c>
       <c r="N19">
-        <v>1.008595269346325</v>
+        <v>1.014332076334624</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9852333220758052</v>
+        <v>1.024517104429211</v>
       </c>
       <c r="D20">
-        <v>1.020304695428056</v>
+        <v>1.029494935727921</v>
       </c>
       <c r="E20">
-        <v>1.00003606715358</v>
+        <v>1.03347734000807</v>
       </c>
       <c r="F20">
-        <v>1.00024220778925</v>
+        <v>1.040736474420933</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040635301877136</v>
+        <v>1.0326373795126</v>
       </c>
       <c r="J20">
-        <v>1.013345586417771</v>
+        <v>1.030791537698151</v>
       </c>
       <c r="K20">
-        <v>1.033999666391996</v>
+        <v>1.032891359894487</v>
       </c>
       <c r="L20">
-        <v>1.014078282393643</v>
+        <v>1.036859717101388</v>
       </c>
       <c r="M20">
-        <v>1.014280799601734</v>
+        <v>1.044093550981862</v>
       </c>
       <c r="N20">
-        <v>1.008328732168239</v>
+        <v>1.014276998884676</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9803950406565836</v>
+        <v>1.023580929675042</v>
       </c>
       <c r="D21">
-        <v>1.017878960610904</v>
+        <v>1.029012809629337</v>
       </c>
       <c r="E21">
-        <v>0.9959285897292859</v>
+        <v>1.032610270002259</v>
       </c>
       <c r="F21">
-        <v>0.9953499834795489</v>
+        <v>1.039689786115018</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039635950735126</v>
+        <v>1.032503347376687</v>
       </c>
       <c r="J21">
-        <v>1.010735937367167</v>
+        <v>1.030257419455261</v>
       </c>
       <c r="K21">
-        <v>1.032529346869862</v>
+        <v>1.032619146872487</v>
       </c>
       <c r="L21">
-        <v>1.010987508955566</v>
+        <v>1.036203069203433</v>
       </c>
       <c r="M21">
-        <v>1.010419990632744</v>
+        <v>1.043256246228319</v>
       </c>
       <c r="N21">
-        <v>1.007446833133993</v>
+        <v>1.014097883388735</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9772889101224806</v>
+        <v>1.022993044948302</v>
       </c>
       <c r="D22">
-        <v>1.016328863659242</v>
+        <v>1.028710077113642</v>
       </c>
       <c r="E22">
-        <v>0.9932995719027368</v>
+        <v>1.032066241936422</v>
       </c>
       <c r="F22">
-        <v>0.992218178056493</v>
+        <v>1.039033206329809</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038986633722764</v>
+        <v>1.032418039681894</v>
       </c>
       <c r="J22">
-        <v>1.009059323740273</v>
+        <v>1.029921619896871</v>
       </c>
       <c r="K22">
-        <v>1.031583637540124</v>
+        <v>1.032447591684008</v>
       </c>
       <c r="L22">
-        <v>1.009004944534003</v>
+        <v>1.035790628229723</v>
       </c>
       <c r="M22">
-        <v>1.007945386839548</v>
+        <v>1.042730640491966</v>
       </c>
       <c r="N22">
-        <v>1.006880148105629</v>
+        <v>1.01398522781572</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9789417862760796</v>
+        <v>1.023304624463684</v>
       </c>
       <c r="D23">
-        <v>1.017153007960262</v>
+        <v>1.028870522852712</v>
       </c>
       <c r="E23">
-        <v>0.9946977962107468</v>
+        <v>1.032354533483733</v>
       </c>
       <c r="F23">
-        <v>0.9938838632438863</v>
+        <v>1.03938112749889</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039332869440298</v>
+        <v>1.032463360909366</v>
       </c>
       <c r="J23">
-        <v>1.009951610786635</v>
+        <v>1.03009963112295</v>
       </c>
       <c r="K23">
-        <v>1.032087025029968</v>
+        <v>1.032538574232701</v>
       </c>
       <c r="L23">
-        <v>1.010059761740519</v>
+        <v>1.03600923074658</v>
       </c>
       <c r="M23">
-        <v>1.009261817424671</v>
+        <v>1.043009193778853</v>
       </c>
       <c r="N23">
-        <v>1.007181743381824</v>
+        <v>1.014044952167649</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9853133889343414</v>
+        <v>1.024532811704348</v>
       </c>
       <c r="D24">
-        <v>1.020344950085923</v>
+        <v>1.029503025261196</v>
       </c>
       <c r="E24">
-        <v>1.000104168997533</v>
+        <v>1.033491895629317</v>
       </c>
       <c r="F24">
-        <v>1.000323314283166</v>
+        <v>1.040754047829013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040651707199399</v>
+        <v>1.03263960895919</v>
       </c>
       <c r="J24">
-        <v>1.013388749110296</v>
+        <v>1.030800492540144</v>
       </c>
       <c r="K24">
-        <v>1.034023963430867</v>
+        <v>1.032895916642911</v>
       </c>
       <c r="L24">
-        <v>1.014129455558469</v>
+        <v>1.036870732899681</v>
       </c>
       <c r="M24">
-        <v>1.014344754538372</v>
+        <v>1.044107602643936</v>
       </c>
       <c r="N24">
-        <v>1.008343316678068</v>
+        <v>1.014280001092309</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9924453426831349</v>
+        <v>1.025961160201758</v>
       </c>
       <c r="D25">
-        <v>1.023944691021621</v>
+        <v>1.030238682504893</v>
       </c>
       <c r="E25">
-        <v>1.006187616755363</v>
+        <v>1.03481661493955</v>
       </c>
       <c r="F25">
-        <v>1.007567959270273</v>
+        <v>1.042353778390405</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042093758905189</v>
+        <v>1.032839599015142</v>
       </c>
       <c r="J25">
-        <v>1.017229653683472</v>
+        <v>1.031613856917101</v>
       </c>
       <c r="K25">
-        <v>1.036182329669807</v>
+        <v>1.033308792614253</v>
       </c>
       <c r="L25">
-        <v>1.018690631368311</v>
+        <v>1.03787223793333</v>
       </c>
       <c r="M25">
-        <v>1.020049917510962</v>
+        <v>1.045385852459704</v>
       </c>
       <c r="N25">
-        <v>1.009640844826321</v>
+        <v>1.014552579008443</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027102853657206</v>
+        <v>0.9979398952330599</v>
       </c>
       <c r="D2">
-        <v>1.030826718843157</v>
+        <v>1.026736050204718</v>
       </c>
       <c r="E2">
-        <v>1.035877072077094</v>
+        <v>1.010898458678855</v>
       </c>
       <c r="F2">
-        <v>1.043634919974799</v>
+        <v>1.013177882616408</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032995426893294</v>
+        <v>1.043175672537587</v>
       </c>
       <c r="J2">
-        <v>1.032262592691959</v>
+        <v>1.020182398760298</v>
       </c>
       <c r="K2">
-        <v>1.033636605255288</v>
+        <v>1.03783506341982</v>
       </c>
       <c r="L2">
-        <v>1.038672419361101</v>
+        <v>1.022208020331883</v>
       </c>
       <c r="M2">
-        <v>1.046408231202599</v>
+        <v>1.024456631353452</v>
       </c>
       <c r="N2">
-        <v>1.014769821801377</v>
+        <v>1.010637829298755</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027933215800363</v>
+        <v>1.001824900005109</v>
       </c>
       <c r="D3">
-        <v>1.031254391436562</v>
+        <v>1.028718559492292</v>
       </c>
       <c r="E3">
-        <v>1.036649267784965</v>
+        <v>1.014242588045719</v>
       </c>
       <c r="F3">
-        <v>1.044568126639018</v>
+        <v>1.017160602516252</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033106422492641</v>
+        <v>1.043923019497758</v>
       </c>
       <c r="J3">
-        <v>1.032733609880367</v>
+        <v>1.022265939730943</v>
       </c>
       <c r="K3">
-        <v>1.033873736513128</v>
+        <v>1.038996708407628</v>
       </c>
       <c r="L3">
-        <v>1.039254199749573</v>
+        <v>1.024696418813603</v>
       </c>
       <c r="M3">
-        <v>1.047152193618798</v>
+        <v>1.02757851953419</v>
       </c>
       <c r="N3">
-        <v>1.014927455671785</v>
+        <v>1.011340983073069</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02847115043483</v>
+        <v>1.004292818910878</v>
       </c>
       <c r="D4">
-        <v>1.031531439199948</v>
+        <v>1.029981514521837</v>
       </c>
       <c r="E4">
-        <v>1.03714994214315</v>
+        <v>1.016372852014727</v>
       </c>
       <c r="F4">
-        <v>1.045173344094577</v>
+        <v>1.019697952818234</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033177245261059</v>
+        <v>1.044389338385257</v>
       </c>
       <c r="J4">
-        <v>1.033038371902111</v>
+        <v>1.023587347762225</v>
       </c>
       <c r="K4">
-        <v>1.034026757204192</v>
+        <v>1.039731069579299</v>
       </c>
       <c r="L4">
-        <v>1.03963100222943</v>
+        <v>1.026277607006359</v>
       </c>
       <c r="M4">
-        <v>1.04763432957096</v>
+        <v>1.029564314547431</v>
       </c>
       <c r="N4">
-        <v>1.015029404641446</v>
+        <v>1.011786754025896</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028697448542754</v>
+        <v>1.005319675469484</v>
       </c>
       <c r="D5">
-        <v>1.031647983615646</v>
+        <v>1.030507793436124</v>
       </c>
       <c r="E5">
-        <v>1.037360666174523</v>
+        <v>1.017260610860264</v>
       </c>
       <c r="F5">
-        <v>1.045428103748726</v>
+        <v>1.020755448838623</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033206779346</v>
+        <v>1.044581304369893</v>
       </c>
       <c r="J5">
-        <v>1.033166488432122</v>
+        <v>1.024136620711586</v>
       </c>
       <c r="K5">
-        <v>1.034090985593166</v>
+        <v>1.040035717816976</v>
       </c>
       <c r="L5">
-        <v>1.039789492790809</v>
+        <v>1.026935592977658</v>
       </c>
       <c r="M5">
-        <v>1.047837195689898</v>
+        <v>1.030391178347905</v>
       </c>
       <c r="N5">
-        <v>1.015072251400398</v>
+        <v>1.01197200341001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028735453763617</v>
+        <v>1.005491473950912</v>
       </c>
       <c r="D6">
-        <v>1.03166755619338</v>
+        <v>1.030595886763457</v>
       </c>
       <c r="E6">
-        <v>1.037396061720103</v>
+        <v>1.017409218707122</v>
       </c>
       <c r="F6">
-        <v>1.045470898093225</v>
+        <v>1.020932475913454</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033211724166361</v>
+        <v>1.044613299031327</v>
       </c>
       <c r="J6">
-        <v>1.03318799940798</v>
+        <v>1.024228484390185</v>
       </c>
       <c r="K6">
-        <v>1.034101763835393</v>
+        <v>1.040086632336781</v>
       </c>
       <c r="L6">
-        <v>1.039816108868408</v>
+        <v>1.027045681544471</v>
       </c>
       <c r="M6">
-        <v>1.047871268087929</v>
+        <v>1.030529552207968</v>
       </c>
       <c r="N6">
-        <v>1.015079444808406</v>
+        <v>1.012002982879312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028474173652283</v>
+        <v>1.004306581249333</v>
       </c>
       <c r="D7">
-        <v>1.031532996185561</v>
+        <v>1.029988564911768</v>
       </c>
       <c r="E7">
-        <v>1.037152756905065</v>
+        <v>1.016384744641968</v>
       </c>
       <c r="F7">
-        <v>1.045176746925949</v>
+        <v>1.019712118907363</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033177640840087</v>
+        <v>1.044391919377642</v>
       </c>
       <c r="J7">
-        <v>1.033040083824287</v>
+        <v>1.023594711506915</v>
       </c>
       <c r="K7">
-        <v>1.034027615827418</v>
+        <v>1.039735156240209</v>
       </c>
       <c r="L7">
-        <v>1.039633119664468</v>
+        <v>1.026286425305402</v>
       </c>
       <c r="M7">
-        <v>1.047637039587763</v>
+        <v>1.029575394123847</v>
       </c>
       <c r="N7">
-        <v>1.015029977211968</v>
+        <v>1.011789237726242</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027383346036489</v>
+        <v>0.9992625730160167</v>
       </c>
       <c r="D8">
-        <v>1.030971186450627</v>
+        <v>1.027410214565081</v>
       </c>
       <c r="E8">
-        <v>1.03613782860686</v>
+        <v>1.012035731503725</v>
       </c>
       <c r="F8">
-        <v>1.043950016698229</v>
+        <v>1.014532277793563</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033033144769739</v>
+        <v>1.043431852890621</v>
       </c>
       <c r="J8">
-        <v>1.032421778070389</v>
+        <v>1.020892188108412</v>
       </c>
       <c r="K8">
-        <v>1.033716830941399</v>
+        <v>1.038231268842131</v>
       </c>
       <c r="L8">
-        <v>1.038868961115796</v>
+        <v>1.023055102319893</v>
       </c>
       <c r="M8">
-        <v>1.046659502079425</v>
+        <v>1.02551893347059</v>
       </c>
       <c r="N8">
-        <v>1.014823105127783</v>
+        <v>1.010877404865445</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025466100460213</v>
+        <v>0.9900064499352631</v>
       </c>
       <c r="D9">
-        <v>1.029983701147956</v>
+        <v>1.022710623557564</v>
       </c>
       <c r="E9">
-        <v>1.03435722493918</v>
+        <v>1.004103389685969</v>
       </c>
       <c r="F9">
-        <v>1.041798937367609</v>
+        <v>1.005085975520858</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032770905137321</v>
+        <v>1.04160509054671</v>
       </c>
       <c r="J9">
-        <v>1.031332163175015</v>
+        <v>1.015917109831842</v>
       </c>
       <c r="K9">
-        <v>1.033166030584522</v>
+        <v>1.035445677553368</v>
       </c>
       <c r="L9">
-        <v>1.037525170989457</v>
+        <v>1.017130241232653</v>
       </c>
       <c r="M9">
-        <v>1.044942713587322</v>
+        <v>1.018097071764301</v>
       </c>
       <c r="N9">
-        <v>1.014458201953948</v>
+        <v>1.009197516030217</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024191347268759</v>
+        <v>0.9835645953196891</v>
       </c>
       <c r="D10">
-        <v>1.029327167238278</v>
+        <v>1.019466543601839</v>
       </c>
       <c r="E10">
-        <v>1.033175525578265</v>
+        <v>0.9986176718235765</v>
       </c>
       <c r="F10">
-        <v>1.040372104281958</v>
+        <v>0.9985529147047424</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032590997386193</v>
+        <v>1.04029237799091</v>
       </c>
       <c r="J10">
-        <v>1.030605770949654</v>
+        <v>1.012445819959171</v>
       </c>
       <c r="K10">
-        <v>1.032796777706697</v>
+        <v>1.033492999155884</v>
       </c>
       <c r="L10">
-        <v>1.03663124611321</v>
+        <v>1.013011929566663</v>
       </c>
       <c r="M10">
-        <v>1.043802154229004</v>
+        <v>1.012948345970377</v>
       </c>
       <c r="N10">
-        <v>1.014214712711912</v>
+        <v>1.008024690286786</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023640193858967</v>
+        <v>0.9807052294354832</v>
       </c>
       <c r="D11">
-        <v>1.02904332905881</v>
+        <v>1.018034072062002</v>
       </c>
       <c r="E11">
-        <v>1.032665132638156</v>
+        <v>0.9961914706104883</v>
       </c>
       <c r="F11">
-        <v>1.039756005248364</v>
+        <v>0.9956631149376439</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032511898853277</v>
+        <v>1.039700474493096</v>
       </c>
       <c r="J11">
-        <v>1.030291254535071</v>
+        <v>1.010903321536443</v>
       </c>
       <c r="K11">
-        <v>1.032636415201276</v>
+        <v>1.032623721634807</v>
       </c>
       <c r="L11">
-        <v>1.036244643289697</v>
+        <v>1.011185569401987</v>
       </c>
       <c r="M11">
-        <v>1.043309240289196</v>
+        <v>1.010667284637935</v>
       </c>
       <c r="N11">
-        <v>1.014109232598262</v>
+        <v>1.007503404352919</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023435596200956</v>
+        <v>0.979632100860563</v>
       </c>
       <c r="D12">
-        <v>1.028937967770634</v>
+        <v>1.017497689294638</v>
       </c>
       <c r="E12">
-        <v>1.032475745693264</v>
+        <v>0.9952822707620264</v>
       </c>
       <c r="F12">
-        <v>1.039527420276158</v>
+        <v>0.9945801007186538</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032482338950316</v>
+        <v>1.03947699642528</v>
       </c>
       <c r="J12">
-        <v>1.030174432794509</v>
+        <v>1.010324200293656</v>
       </c>
       <c r="K12">
-        <v>1.032576779486308</v>
+        <v>1.032297167468411</v>
       </c>
       <c r="L12">
-        <v>1.036101114194213</v>
+        <v>1.01050041661643</v>
       </c>
       <c r="M12">
-        <v>1.043126295323619</v>
+        <v>1.009811879340567</v>
       </c>
       <c r="N12">
-        <v>1.014070045885065</v>
+        <v>1.007307674446909</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023479477399314</v>
+        <v>0.9798627984703197</v>
       </c>
       <c r="D13">
-        <v>1.028960564977908</v>
+        <v>1.017612941887111</v>
       </c>
       <c r="E13">
-        <v>1.032516360950138</v>
+        <v>0.995477665292732</v>
       </c>
       <c r="F13">
-        <v>1.039576440658937</v>
+        <v>0.9948128536469222</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032488687747252</v>
+        <v>1.039525098483095</v>
       </c>
       <c r="J13">
-        <v>1.030199491269155</v>
+        <v>1.010448707058115</v>
       </c>
       <c r="K13">
-        <v>1.032589574695185</v>
+        <v>1.032367381945806</v>
       </c>
       <c r="L13">
-        <v>1.036131898373186</v>
+        <v>1.010647694944961</v>
       </c>
       <c r="M13">
-        <v>1.043165531042243</v>
+        <v>1.009995740044118</v>
       </c>
       <c r="N13">
-        <v>1.014078451864009</v>
+        <v>1.007349755612506</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023623279188276</v>
+        <v>0.9806167524520296</v>
       </c>
       <c r="D14">
-        <v>1.029034618446145</v>
+        <v>1.017989822957164</v>
       </c>
       <c r="E14">
-        <v>1.032649473851161</v>
+        <v>0.9961164812404716</v>
       </c>
       <c r="F14">
-        <v>1.039737104995087</v>
+        <v>0.9955737915087205</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032509459073805</v>
+        <v>1.039682076084533</v>
       </c>
       <c r="J14">
-        <v>1.030281597931816</v>
+        <v>1.010855578519292</v>
       </c>
       <c r="K14">
-        <v>1.032631487114257</v>
+        <v>1.032596803925705</v>
       </c>
       <c r="L14">
-        <v>1.036232777644648</v>
+        <v>1.011129074096499</v>
       </c>
       <c r="M14">
-        <v>1.043294115029467</v>
+        <v>1.010596744325592</v>
       </c>
       <c r="N14">
-        <v>1.014105993546402</v>
+        <v>1.007487268606134</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023711896862164</v>
+        <v>0.9810798104725247</v>
       </c>
       <c r="D15">
-        <v>1.029080254413204</v>
+        <v>1.018221458220421</v>
       </c>
       <c r="E15">
-        <v>1.032731515091418</v>
+        <v>0.9965090055081717</v>
       </c>
       <c r="F15">
-        <v>1.039836130320841</v>
+        <v>0.9960413423485494</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0325222332505</v>
+        <v>1.039778312876364</v>
       </c>
       <c r="J15">
-        <v>1.030332187078106</v>
+        <v>1.011105440378083</v>
       </c>
       <c r="K15">
-        <v>1.032657301507251</v>
+        <v>1.032737669638049</v>
       </c>
       <c r="L15">
-        <v>1.036294942330061</v>
+        <v>1.011424762923812</v>
       </c>
       <c r="M15">
-        <v>1.04337335915924</v>
+        <v>1.010965956096242</v>
       </c>
       <c r="N15">
-        <v>1.014122962011486</v>
+        <v>1.007571713973946</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024227942983669</v>
+        <v>0.983752843849751</v>
       </c>
       <c r="D16">
-        <v>1.029346014192201</v>
+        <v>1.019561016305793</v>
       </c>
       <c r="E16">
-        <v>1.033209426024266</v>
+        <v>0.9987775891120894</v>
       </c>
       <c r="F16">
-        <v>1.040413029334923</v>
+        <v>0.9987433787274537</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032596221728965</v>
+        <v>1.040331158234499</v>
       </c>
       <c r="J16">
-        <v>1.030626644814289</v>
+        <v>1.012547339385403</v>
       </c>
       <c r="K16">
-        <v>1.032807410563658</v>
+        <v>1.033550181605498</v>
       </c>
       <c r="L16">
-        <v>1.036656913745875</v>
+        <v>1.01313220693745</v>
       </c>
       <c r="M16">
-        <v>1.043834887579614</v>
+        <v>1.013098614404623</v>
       </c>
       <c r="N16">
-        <v>1.014221712114572</v>
+        <v>1.008058996232615</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024551866580868</v>
+        <v>0.9854104713605178</v>
       </c>
       <c r="D17">
-        <v>1.029512838883501</v>
+        <v>1.020393764359144</v>
       </c>
       <c r="E17">
-        <v>1.033509553754586</v>
+        <v>1.000186749323741</v>
       </c>
       <c r="F17">
-        <v>1.040775367089815</v>
+        <v>1.000421663819966</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032642312687555</v>
+        <v>1.040671592884596</v>
       </c>
       <c r="J17">
-        <v>1.030811355577047</v>
+        <v>1.01344108348593</v>
       </c>
       <c r="K17">
-        <v>1.032901444074389</v>
+        <v>1.03405342230616</v>
       </c>
       <c r="L17">
-        <v>1.036884096362499</v>
+        <v>1.014191504940088</v>
       </c>
       <c r="M17">
-        <v>1.044124649200691</v>
+        <v>1.014422303779337</v>
       </c>
       <c r="N17">
-        <v>1.014283643007852</v>
+        <v>1.008361000177809</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024740885048307</v>
+        <v>0.9863706198798925</v>
       </c>
       <c r="D18">
-        <v>1.029610187742089</v>
+        <v>1.020876822409882</v>
       </c>
       <c r="E18">
-        <v>1.033684737592688</v>
+        <v>1.001003807879338</v>
       </c>
       <c r="F18">
-        <v>1.040986879280845</v>
+        <v>1.001394731474488</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032669081196308</v>
+        <v>1.040867902509451</v>
       </c>
       <c r="J18">
-        <v>1.030919095722051</v>
+        <v>1.013958604611025</v>
       </c>
       <c r="K18">
-        <v>1.032956246456522</v>
+        <v>1.034344668912649</v>
       </c>
       <c r="L18">
-        <v>1.037016653638348</v>
+        <v>1.014805236758553</v>
       </c>
       <c r="M18">
-        <v>1.04429375436276</v>
+        <v>1.015189433387612</v>
       </c>
       <c r="N18">
-        <v>1.01431976162038</v>
+        <v>1.008535862487942</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02480534886561</v>
+        <v>0.9866968814602244</v>
       </c>
       <c r="D19">
-        <v>1.029643388394089</v>
+        <v>1.02104108365387</v>
       </c>
       <c r="E19">
-        <v>1.033744491801543</v>
+        <v>1.001281586502883</v>
       </c>
       <c r="F19">
-        <v>1.041059027692137</v>
+        <v>1.001725544016923</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032678188942682</v>
+        <v>1.040934458292795</v>
       </c>
       <c r="J19">
-        <v>1.030955832541416</v>
+        <v>1.014134431290449</v>
       </c>
       <c r="K19">
-        <v>1.032974924851764</v>
+        <v>1.034443591726844</v>
       </c>
       <c r="L19">
-        <v>1.037061859918339</v>
+        <v>1.015013809835237</v>
       </c>
       <c r="M19">
-        <v>1.044351430427236</v>
+        <v>1.015450174751705</v>
       </c>
       <c r="N19">
-        <v>1.014332076334624</v>
+        <v>1.008595269346325</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024517104429211</v>
+        <v>0.9852333220758053</v>
       </c>
       <c r="D20">
-        <v>1.029494935727921</v>
+        <v>1.020304695428056</v>
       </c>
       <c r="E20">
-        <v>1.03347734000807</v>
+        <v>1.00003606715358</v>
       </c>
       <c r="F20">
-        <v>1.040736474420933</v>
+        <v>1.000242207789251</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0326373795126</v>
+        <v>1.040635301877136</v>
       </c>
       <c r="J20">
-        <v>1.030791537698151</v>
+        <v>1.013345586417771</v>
       </c>
       <c r="K20">
-        <v>1.032891359894487</v>
+        <v>1.033999666391996</v>
       </c>
       <c r="L20">
-        <v>1.036859717101388</v>
+        <v>1.014078282393643</v>
       </c>
       <c r="M20">
-        <v>1.044093550981862</v>
+        <v>1.014280799601734</v>
       </c>
       <c r="N20">
-        <v>1.014276998884676</v>
+        <v>1.008328732168239</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023580929675042</v>
+        <v>0.9803950406565831</v>
       </c>
       <c r="D21">
-        <v>1.029012809629337</v>
+        <v>1.017878960610904</v>
       </c>
       <c r="E21">
-        <v>1.032610270002259</v>
+        <v>0.9959285897292856</v>
       </c>
       <c r="F21">
-        <v>1.039689786115018</v>
+        <v>0.9953499834795484</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032503347376687</v>
+        <v>1.039635950735126</v>
       </c>
       <c r="J21">
-        <v>1.030257419455261</v>
+        <v>1.010735937367167</v>
       </c>
       <c r="K21">
-        <v>1.032619146872487</v>
+        <v>1.032529346869862</v>
       </c>
       <c r="L21">
-        <v>1.036203069203433</v>
+        <v>1.010987508955566</v>
       </c>
       <c r="M21">
-        <v>1.043256246228319</v>
+        <v>1.010419990632743</v>
       </c>
       <c r="N21">
-        <v>1.014097883388735</v>
+        <v>1.007446833133993</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022993044948302</v>
+        <v>0.9772889101224806</v>
       </c>
       <c r="D22">
-        <v>1.028710077113642</v>
+        <v>1.016328863659242</v>
       </c>
       <c r="E22">
-        <v>1.032066241936422</v>
+        <v>0.9932995719027372</v>
       </c>
       <c r="F22">
-        <v>1.039033206329809</v>
+        <v>0.9922181780564933</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032418039681894</v>
+        <v>1.038986633722764</v>
       </c>
       <c r="J22">
-        <v>1.029921619896871</v>
+        <v>1.009059323740273</v>
       </c>
       <c r="K22">
-        <v>1.032447591684008</v>
+        <v>1.031583637540124</v>
       </c>
       <c r="L22">
-        <v>1.035790628229723</v>
+        <v>1.009004944534004</v>
       </c>
       <c r="M22">
-        <v>1.042730640491966</v>
+        <v>1.007945386839548</v>
       </c>
       <c r="N22">
-        <v>1.01398522781572</v>
+        <v>1.006880148105629</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023304624463684</v>
+        <v>0.9789417862760791</v>
       </c>
       <c r="D23">
-        <v>1.028870522852712</v>
+        <v>1.017153007960262</v>
       </c>
       <c r="E23">
-        <v>1.032354533483733</v>
+        <v>0.9946977962107462</v>
       </c>
       <c r="F23">
-        <v>1.03938112749889</v>
+        <v>0.9938838632438858</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032463360909366</v>
+        <v>1.039332869440298</v>
       </c>
       <c r="J23">
-        <v>1.03009963112295</v>
+        <v>1.009951610786634</v>
       </c>
       <c r="K23">
-        <v>1.032538574232701</v>
+        <v>1.032087025029968</v>
       </c>
       <c r="L23">
-        <v>1.03600923074658</v>
+        <v>1.010059761740519</v>
       </c>
       <c r="M23">
-        <v>1.043009193778853</v>
+        <v>1.009261817424671</v>
       </c>
       <c r="N23">
-        <v>1.014044952167649</v>
+        <v>1.007181743381824</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024532811704348</v>
+        <v>0.9853133889343414</v>
       </c>
       <c r="D24">
-        <v>1.029503025261196</v>
+        <v>1.020344950085923</v>
       </c>
       <c r="E24">
-        <v>1.033491895629317</v>
+        <v>1.000104168997533</v>
       </c>
       <c r="F24">
-        <v>1.040754047829013</v>
+        <v>1.000323314283166</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03263960895919</v>
+        <v>1.040651707199399</v>
       </c>
       <c r="J24">
-        <v>1.030800492540144</v>
+        <v>1.013388749110296</v>
       </c>
       <c r="K24">
-        <v>1.032895916642911</v>
+        <v>1.034023963430866</v>
       </c>
       <c r="L24">
-        <v>1.036870732899681</v>
+        <v>1.014129455558469</v>
       </c>
       <c r="M24">
-        <v>1.044107602643936</v>
+        <v>1.014344754538372</v>
       </c>
       <c r="N24">
-        <v>1.014280001092309</v>
+        <v>1.008343316678068</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025961160201758</v>
+        <v>0.992445342683134</v>
       </c>
       <c r="D25">
-        <v>1.030238682504893</v>
+        <v>1.023944691021621</v>
       </c>
       <c r="E25">
-        <v>1.03481661493955</v>
+        <v>1.006187616755362</v>
       </c>
       <c r="F25">
-        <v>1.042353778390405</v>
+        <v>1.007567959270272</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032839599015142</v>
+        <v>1.042093758905189</v>
       </c>
       <c r="J25">
-        <v>1.031613856917101</v>
+        <v>1.017229653683472</v>
       </c>
       <c r="K25">
-        <v>1.033308792614253</v>
+        <v>1.036182329669807</v>
       </c>
       <c r="L25">
-        <v>1.03787223793333</v>
+        <v>1.01869063136831</v>
       </c>
       <c r="M25">
-        <v>1.045385852459704</v>
+        <v>1.020049917510961</v>
       </c>
       <c r="N25">
-        <v>1.014552579008443</v>
+        <v>1.009640844826321</v>
       </c>
     </row>
   </sheetData>
